--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mnist_fashion" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mnist_digits" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cifar10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mnist_fashion" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mnist_digits" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cifar10" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -467,6 +467,9 @@
           <t>RS</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0.8966000080108643</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -470,6 +470,9 @@
       <c r="B4" t="n">
         <v>0.8966000080108643</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.8978999853134155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -1,66 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Green\Desktop\Genetic_Algorithm\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A60B9-753D-4C92-A22E-6C73DD316F9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="2295" yWindow="2295"/>
   </bookViews>
   <sheets>
-    <sheet name="mnist_fashion" sheetId="1" r:id="rId1"/>
-    <sheet name="mnist_digits" sheetId="2" r:id="rId2"/>
-    <sheet name="cifar10" sheetId="3" r:id="rId3"/>
+    <sheet name="mnist_fashion" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mnist_digits" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cifar10" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
-  <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>KNN_size</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,25 +45,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -384,289 +344,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="24.5703125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <v>50</v>
-      </c>
-      <c r="E1">
-        <v>250</v>
-      </c>
-      <c r="F1">
-        <v>250</v>
-      </c>
-      <c r="G1">
-        <v>250</v>
-      </c>
-      <c r="H1">
-        <v>500</v>
-      </c>
-      <c r="I1">
-        <v>500</v>
-      </c>
-      <c r="J1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.89560002088546753</v>
-      </c>
-      <c r="G3">
-        <v>0.89520001411437988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.89550000429153398</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H1" t="n">
+        <v>500</v>
+      </c>
+      <c r="I1" t="n">
+        <v>500</v>
+      </c>
+      <c r="J1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KNN_size</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8956000208854675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8945000171661377</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8952000141143799</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.895500004291534</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J4"/>
+      <selection activeCell="A1" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <v>50</v>
-      </c>
-      <c r="E1">
-        <v>250</v>
-      </c>
-      <c r="F1">
-        <v>250</v>
-      </c>
-      <c r="G1">
-        <v>250</v>
-      </c>
-      <c r="H1">
-        <v>500</v>
-      </c>
-      <c r="I1">
-        <v>500</v>
-      </c>
-      <c r="J1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H1" t="n">
+        <v>500</v>
+      </c>
+      <c r="I1" t="n">
+        <v>500</v>
+      </c>
+      <c r="J1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KNN_size</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="24.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>50</v>
-      </c>
-      <c r="C1">
-        <v>50</v>
-      </c>
-      <c r="D1">
-        <v>50</v>
-      </c>
-      <c r="E1">
-        <v>250</v>
-      </c>
-      <c r="F1">
-        <v>250</v>
-      </c>
-      <c r="G1">
-        <v>250</v>
-      </c>
-      <c r="H1">
-        <v>500</v>
-      </c>
-      <c r="I1">
-        <v>500</v>
-      </c>
-      <c r="J1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H1" t="n">
+        <v>500</v>
+      </c>
+      <c r="I1" t="n">
+        <v>500</v>
+      </c>
+      <c r="J1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KNN_size</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="2295" yWindow="2295"/>
   </bookViews>
   <sheets>
-    <sheet name="mnist_fashion" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mnist_digits" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cifar10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mnist_fashion" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mnist_digits" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cifar10" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -589,6 +589,9 @@
           <t>GA</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>0.9819999933242798</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -460,6 +460,9 @@
       <c r="C3" t="n">
         <v>0.8945000171661377</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.8956000208854675</v>
+      </c>
       <c r="G3" t="n">
         <v>0.8952000141143799</v>
       </c>

--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -673,6 +673,18 @@
       <c r="E3" t="n">
         <v>0.978607511005459</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.9804166555404663</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9798024440951995</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9808333516120911</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9799750049308905</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
@@ -687,6 +699,18 @@
       <c r="E4" t="n">
         <v>0.9785069009460108</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.9797527904302827</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9797566657567019</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9793937345058106</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9796205101134753</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -705,6 +729,18 @@
       </c>
       <c r="E5" t="n">
         <v>0.9823021071192036</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9802500009536743</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9824429495822227</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9818333387374878</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9813848226669195</v>
       </c>
     </row>
     <row r="6">
@@ -719,6 +755,18 @@
       </c>
       <c r="E6" t="n">
         <v>0.982150164227334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9822824448247067</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9823307610082873</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9810535215773939</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9811906835324991</v>
       </c>
     </row>
   </sheetData>
@@ -1024,6 +1072,18 @@
       <c r="E3" t="n">
         <v>0.9492374738767124</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.9566666483879089</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9481907860298453</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9583333134651184</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9464531914724938</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
@@ -1038,6 +1098,18 @@
       <c r="E4" t="n">
         <v>0.948778460282605</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.9480620530638648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9480170631443992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.945948930440708</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9460949718901311</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -1062,6 +1134,12 @@
       </c>
       <c r="G5" t="n">
         <v>0.9441317518779522</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9524999856948853</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9442599412601969</v>
       </c>
     </row>
     <row r="6">
@@ -1082,6 +1160,12 @@
       </c>
       <c r="G6" t="n">
         <v>0.942382257907953</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9441577196904983</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9438440866283309</v>
       </c>
     </row>
   </sheetData>
@@ -1182,8 +1266,21 @@
           <t>RS</t>
         </is>
       </c>
-    </row>
-    <row r="6"/>
+      <c r="D5" t="n">
+        <v>0.6159999966621399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5958964083447558</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>0.5964999999999998</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5917072638579615</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A3:A4"/>

--- a/data/evaluation.xlsx
+++ b/data/evaluation.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="mnist_fashion" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="mnist_digits" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cifar10" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mnist_fashion_small" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mnist_digits_small" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="cifar10_small" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="exampel" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mnist_digits_small" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cifar10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="cifar10_small" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="exampel" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mnist_fashion_small" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Tabelle1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
@@ -90,6 +90,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -109,49 +129,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Standard" xfId="0"/>
@@ -514,16 +515,16 @@
           <t>Iterations</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n">
+      <c r="B1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="n">
+      <c r="F1" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="H1" s="5" t="n">
+      <c r="H1" s="3" t="n">
         <v>250</v>
       </c>
     </row>
@@ -533,29 +534,29 @@
           <t>KNN_size</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
@@ -563,7 +564,7 @@
     </row>
     <row r="4"/>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
@@ -572,16 +573,16 @@
     <row r="6"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -596,8 +597,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -605,8 +606,8 @@
     <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
     <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
     <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
-    <col customWidth="1" max="13" min="4" style="4" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="9.140625"/>
+    <col customWidth="1" max="14" min="4" style="4" width="9.140625"/>
+    <col customWidth="1" max="16384" min="15" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,16 +616,16 @@
           <t>Iterations</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n">
+      <c r="B1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="n">
+      <c r="F1" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="H1" s="5" t="n">
+      <c r="H1" s="3" t="n">
         <v>250</v>
       </c>
     </row>
@@ -634,159 +635,358 @@
           <t>KNN_size</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="10" t="n">
         <v>0.981333315372467</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="10" t="n">
         <v>0.981982966043937</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="10" t="n">
         <v>0.9794166684150696</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="10" t="n">
         <v>0.978607511005459</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="10" t="n">
         <v>0.9804166555404663</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="10" t="n">
         <v>0.9798024440951995</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="10" t="n">
         <v>0.9808333516120911</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="10" t="n">
         <v>0.9799750049308905</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" s="10" t="n">
         <v>0.9819497845822184</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.9819433630215901</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="10" t="n">
         <v>0.9784418854949634</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="10" t="n">
         <v>0.9785069009460108</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="10" t="n">
         <v>0.9797527904302827</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="10" t="n">
         <v>0.9797566657567019</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="10" t="n">
         <v>0.9793937345058106</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="10" t="n">
         <v>0.9796205101134753</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="10" t="n">
         <v>0.9786666631698608</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="10" t="n">
         <v>0.9782291530607147</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="10" t="n">
         <v>0.9799166917800903</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.9823021071192036</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="10" t="n">
         <v>0.9802500009536743</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="10" t="n">
         <v>0.9824429495822227</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="10" t="n">
         <v>0.9818333387374878</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="10" t="n">
         <v>0.9813848226669195</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
+      <c r="B6" s="10" t="n">
         <v>0.978035533064347</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.9780986216157007</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="10" t="n">
         <v>0.9820592875128776</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.982150164227334</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="10" t="n">
         <v>0.9822824448247067</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="10" t="n">
         <v>0.9823307610082873</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="10" t="n">
         <v>0.9810535215773939</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="10" t="n">
         <v>0.9811906835324991</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
+    <col customWidth="1" max="14" min="4" style="4" width="9.140625"/>
+    <col customWidth="1" max="16384" min="15" style="4" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KNN_size</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>0.9558333158493042</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>0.9446732535956206</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.9591666460037231</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>0.9492374738767124</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0.9566666483879089</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0.9481907860298453</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0.9583333134651184</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>0.9464531914724938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="10" t="n">
+        <v>0.9445652394993553</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>0.944532891292693</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.9485892881507239</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>0.948778460282605</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0.9480620530638648</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0.9480170631443992</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.945948930440708</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0.9460949718901311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0.9441666603088379</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.9444116018202594</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.9491666555404663</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.9485000535954521</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0.95333331823349</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.9441317518779522</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.9524999856948853</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0.9442599412601969</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="10" t="n">
+        <v>0.9428409252126704</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0.9431724333569486</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.9481027213116882</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0.9481731271448727</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0.9422240559258273</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0.942382257907953</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.9441577196904983</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0.9438440866283309</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -803,8 +1003,8 @@
     <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
     <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
     <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
-    <col customWidth="1" max="13" min="4" style="4" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="9.140625"/>
+    <col customWidth="1" max="14" min="4" style="4" width="9.140625"/>
+    <col customWidth="1" max="16384" min="15" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -813,16 +1013,16 @@
           <t>Iterations</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n">
+      <c r="B1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="n">
+      <c r="F1" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="H1" s="5" t="n">
+      <c r="H1" s="3" t="n">
         <v>250</v>
       </c>
     </row>
@@ -832,43 +1032,378 @@
           <t>KNN_size</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
       </c>
-    </row>
-    <row r="4"/>
+      <c r="D3" t="n">
+        <v>0.7874000072479248</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7812129128479205</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="n">
+        <v>0.7817999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7795175756658337</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-    </row>
-    <row r="6"/>
+      <c r="D5" t="n">
+        <v>0.7950999736785889</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7935711233647375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>0.7908999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7887907652951351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
+    <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
+    <col customWidth="1" max="14" min="4" style="4" width="9.140625"/>
+    <col customWidth="1" max="16384" min="15" style="4" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KNN_size</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5870000123977661</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5601500031020624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="n">
+        <v>0.5628</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5596452305139606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6159999966621399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5958964083447558</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6069999933242798</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6259176368466928</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="n">
+        <v>0.5964999999999998</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5917072638579615</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6073</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6087611016165698</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="19.42578125"/>
+    <col customWidth="1" max="3" min="3" style="4" width="19.85546875"/>
+    <col customWidth="1" max="14" min="4" style="4" width="9.140625"/>
+    <col customWidth="1" max="16384" min="15" style="4" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1" s="7" t="n"/>
+      <c r="H1" s="6" t="n">
+        <v>250</v>
+      </c>
+      <c r="I1" s="7" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>KNN_size</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="n"/>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>big</t>
+        </is>
+      </c>
+      <c r="I2" s="7" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Acc</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>precision_score_var</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>recall_score_var</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>f1_score_var</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A3:A4"/>
@@ -883,10 +1418,12 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -903,8 +1440,8 @@
     <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
     <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
     <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
-    <col customWidth="1" max="13" min="4" style="4" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="9.140625"/>
+    <col customWidth="1" max="14" min="4" style="4" width="9.140625"/>
+    <col customWidth="1" max="16384" min="15" style="4" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -913,16 +1450,16 @@
           <t>Iterations</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n">
+      <c r="B1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="n">
+      <c r="F1" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="H1" s="5" t="n">
+      <c r="H1" s="3" t="n">
         <v>250</v>
       </c>
     </row>
@@ -932,29 +1469,29 @@
           <t>KNN_size</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>GA</t>
         </is>
@@ -962,496 +1499,13 @@
     </row>
     <row r="4"/>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
     </row>
     <row r="6"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
-    <col customWidth="1" max="13" min="4" style="4" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="9.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Iterations</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H1" s="5" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>KNN_size</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9558333158493042</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9446732535956206</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9591666460037231</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9492374738767124</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9566666483879089</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9481907860298453</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9583333134651184</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9464531914724938</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
-        <v>0.9445652394993553</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.944532891292693</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9485892881507239</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.948778460282605</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9480620530638648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9480170631443992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.945948930440708</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9460949718901311</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9441666603088379</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9444116018202594</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9491666555404663</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9485000535954521</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.95333331823349</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9441317518779522</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9442599412601969</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>0.9428409252126704</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9431724333569486</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9481027213116882</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9481731271448727</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9422240559258273</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.942382257907953</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9441577196904983</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9438440866283309</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
-    <col customWidth="1" max="2" min="2" style="4" width="12.28515625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="11.5703125"/>
-    <col customWidth="1" max="13" min="4" style="4" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="9.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Iterations</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H1" s="5" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>KNN_size</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6159999966621399</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5958964083447558</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="n">
-        <v>0.5964999999999998</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5917072638579615</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="24.5703125"/>
-    <col customWidth="1" max="2" min="2" style="4" width="19.42578125"/>
-    <col customWidth="1" max="3" min="3" style="4" width="19.85546875"/>
-    <col customWidth="1" max="13" min="4" style="4" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="4" width="9.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Iterations</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="8" t="n">
-        <v>250</v>
-      </c>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="8" t="n">
-        <v>250</v>
-      </c>
-      <c r="I1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>KNN_size</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>big</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Acc</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>precision_score_var</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>recall_score_var</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>f1_score_var</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="H1:I1"/>
@@ -1467,7 +1521,6 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
